--- a/teaching/traditional_assets/database/data/kuwait/kuwait_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/kuwait/kuwait_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ12"/>
+  <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.02293</v>
-      </c>
-      <c r="E2">
-        <v>-0.0248</v>
+        <v>-0.243</v>
       </c>
       <c r="G2">
-        <v>0.3984989710688779</v>
+        <v>0.6808537341062226</v>
       </c>
       <c r="H2">
-        <v>0.3984989710688779</v>
+        <v>0.6808537341062226</v>
       </c>
       <c r="I2">
-        <v>0.144024482628121</v>
+        <v>0.2643877414952113</v>
       </c>
       <c r="J2">
-        <v>0.1408936279494522</v>
+        <v>0.2635864079354284</v>
       </c>
       <c r="K2">
-        <v>106.416</v>
+        <v>-56.31</v>
       </c>
       <c r="L2">
-        <v>0.3220433361578501</v>
+        <v>-0.2208460470479343</v>
       </c>
       <c r="M2">
-        <v>46.919</v>
+        <v>58.085</v>
       </c>
       <c r="N2">
-        <v>0.04020135378288065</v>
+        <v>0.0281952332411048</v>
       </c>
       <c r="O2">
-        <v>0.4409017440986318</v>
+        <v>-1.03152193216125</v>
       </c>
       <c r="P2">
-        <v>46.715</v>
+        <v>56.285</v>
       </c>
       <c r="Q2">
-        <v>0.04002656156284809</v>
+        <v>0.02732148924809475</v>
       </c>
       <c r="R2">
-        <v>0.4389847391369719</v>
+        <v>-0.9995560291244895</v>
       </c>
       <c r="S2">
-        <v>0.2040000000000006</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
-        <v>0.004347918753596637</v>
+        <v>0.03098906774554532</v>
       </c>
       <c r="U2">
-        <v>510.724</v>
+        <v>585.46</v>
       </c>
       <c r="V2">
-        <v>0.4376008910975924</v>
+        <v>0.2841900878598126</v>
       </c>
       <c r="W2">
-        <v>0.02997625525009546</v>
+        <v>-0.0422102839600921</v>
       </c>
       <c r="X2">
-        <v>0.03242621637765353</v>
+        <v>0.02098244494925583</v>
       </c>
       <c r="Y2">
-        <v>-0.002449961127558069</v>
+        <v>-0.06319272890934793</v>
       </c>
       <c r="Z2">
-        <v>0.1051746825533709</v>
+        <v>0.07975164993275155</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0324904110520326</v>
+        <v>0.02115180848066013</v>
       </c>
       <c r="AC2">
-        <v>-0.03260655195897535</v>
+        <v>-0.02035435800036388</v>
       </c>
       <c r="AD2">
-        <v>1506.28</v>
+        <v>1286.06</v>
       </c>
       <c r="AE2">
-        <v>31.23274980181847</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1537.512749801818</v>
+        <v>1286.06</v>
       </c>
       <c r="AG2">
-        <v>1026.788749801819</v>
+        <v>700.5999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.5684779641427337</v>
+        <v>0.3843390632844813</v>
       </c>
       <c r="AI2">
-        <v>0.3835140583870241</v>
+        <v>0.3202133328021592</v>
       </c>
       <c r="AJ2">
-        <v>0.4680222503965034</v>
+        <v>0.2537762161770565</v>
       </c>
       <c r="AK2">
-        <v>0.293511720511918</v>
+        <v>0.2042089308616066</v>
       </c>
       <c r="AL2">
-        <v>34.207</v>
+        <v>28.015</v>
       </c>
       <c r="AM2">
-        <v>30.417</v>
+        <v>22.645</v>
       </c>
       <c r="AN2">
-        <v>13.92627656918852</v>
+        <v>10.44218902240987</v>
       </c>
       <c r="AO2">
-        <v>1.401467535884468</v>
+        <v>2.406282348741746</v>
       </c>
       <c r="AP2">
-        <v>9.493151411338824</v>
+        <v>5.688535238713867</v>
       </c>
       <c r="AQ2">
-        <v>1.576092316796528</v>
+        <v>2.97690439390594</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Al Madar Finance &amp; Investment Company (K.S.C.P.) (KWSE:MADAR)</t>
+          <t>Boursa Kuwait Securities Company K.P.S.C. (KWSE:BOURSA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -724,119 +721,116 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.07719999999999999</v>
-      </c>
-      <c r="E3">
-        <v>-0.0248</v>
-      </c>
       <c r="G3">
-        <v>1.604166666666667</v>
+        <v>0.4500907441016334</v>
       </c>
       <c r="H3">
-        <v>1.604166666666667</v>
+        <v>0.4500907441016334</v>
       </c>
       <c r="I3">
-        <v>0.6968500901682975</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="J3">
-        <v>0.6963608273166246</v>
+        <v>0.5463193583064583</v>
       </c>
       <c r="K3">
-        <v>11.7</v>
+        <v>80</v>
       </c>
       <c r="L3">
-        <v>0.8124999999999999</v>
+        <v>1.451905626134301</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>13.9</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.01914600550964187</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.17375</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>13.9</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.01914600550964187</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.17375</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>8.31</v>
+        <v>46.5</v>
       </c>
       <c r="V3">
-        <v>0.1310725552050473</v>
+        <v>0.0640495867768595</v>
       </c>
       <c r="W3">
-        <v>0.1937086092715232</v>
+        <v>0.9216589861751152</v>
       </c>
       <c r="X3">
-        <v>0.02785947419538708</v>
+        <v>0.01819833831513748</v>
       </c>
       <c r="Y3">
-        <v>0.1658491350761361</v>
+        <v>0.9034606478599777</v>
       </c>
       <c r="Z3">
-        <v>0.1770851921086155</v>
+        <v>0.8786477435815659</v>
       </c>
       <c r="AA3">
-        <v>0.1233151908822789</v>
+        <v>0.4800222714508986</v>
       </c>
       <c r="AB3">
-        <v>0.02802157507352413</v>
+        <v>0.01824577396436784</v>
       </c>
       <c r="AC3">
-        <v>0.09529361580875473</v>
+        <v>0.4617764974865308</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AE3">
-        <v>1.316793507882578</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.316793507882578</v>
+        <v>2.75</v>
       </c>
       <c r="AG3">
-        <v>-6.993206492117422</v>
+        <v>-43.75</v>
       </c>
       <c r="AH3">
-        <v>0.02034701406710132</v>
+        <v>0.003773584905660377</v>
       </c>
       <c r="AI3">
-        <v>0.01677085180191905</v>
+        <v>0.009777777777777778</v>
       </c>
       <c r="AJ3">
-        <v>-0.1239780894678964</v>
+        <v>-0.06412605349945034</v>
       </c>
       <c r="AK3">
-        <v>-0.09960868660569505</v>
+        <v>-0.1863684771033014</v>
       </c>
       <c r="AL3">
-        <v>0.378</v>
+        <v>0.143</v>
       </c>
       <c r="AM3">
-        <v>0.378</v>
+        <v>-1.807</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.08702531645569619</v>
       </c>
       <c r="AO3">
-        <v>26.16402116402116</v>
+        <v>212.5874125874126</v>
       </c>
       <c r="AP3">
-        <v>-0.6352840199961322</v>
+        <v>-1.384493670886076</v>
       </c>
       <c r="AQ3">
-        <v>26.16402116402116</v>
+        <v>-16.82346430547869</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +841,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kuwait Investment Company K.S.C.P. (KWSE:KINV)</t>
+          <t>Al Madar Finance and Investment Company K.S.C. (Public) (KWSE:MADAR)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -856,46 +850,43 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.113</v>
-      </c>
-      <c r="E4">
-        <v>0.0361</v>
+        <v>-0.287</v>
       </c>
       <c r="G4">
-        <v>0.7019607843137255</v>
+        <v>1.872037914691943</v>
       </c>
       <c r="H4">
-        <v>0.7019607843137255</v>
+        <v>1.872037914691943</v>
       </c>
       <c r="I4">
-        <v>0.4379974998851349</v>
+        <v>2.023696682464455</v>
       </c>
       <c r="J4">
-        <v>0.4360024327390613</v>
+        <v>2.009241706161137</v>
       </c>
       <c r="K4">
-        <v>29.8</v>
+        <v>3.25</v>
       </c>
       <c r="L4">
-        <v>0.3895424836601307</v>
+        <v>1.540284360189573</v>
       </c>
       <c r="M4">
-        <v>18.1</v>
+        <v>3.37</v>
       </c>
       <c r="N4">
-        <v>0.06674041297935104</v>
+        <v>0.05435483870967742</v>
       </c>
       <c r="O4">
-        <v>0.6073825503355705</v>
+        <v>1.036923076923077</v>
       </c>
       <c r="P4">
-        <v>18.1</v>
+        <v>3.37</v>
       </c>
       <c r="Q4">
-        <v>0.06674041297935104</v>
+        <v>0.05435483870967742</v>
       </c>
       <c r="R4">
-        <v>0.6073825503355705</v>
+        <v>1.036923076923077</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -904,73 +895,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>65.59999999999999</v>
+        <v>4.42</v>
       </c>
       <c r="V4">
-        <v>0.2418879056047198</v>
+        <v>0.07129032258064516</v>
       </c>
       <c r="W4">
-        <v>0.0743142144638404</v>
+        <v>0.04577464788732395</v>
       </c>
       <c r="X4">
-        <v>0.03167548242457291</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="Y4">
-        <v>0.04263873203926749</v>
+        <v>0.02760486757697357</v>
       </c>
       <c r="Z4">
-        <v>0.1810154085776947</v>
+        <v>0.0336576806508215</v>
       </c>
       <c r="AA4">
-        <v>0.07892315850313004</v>
+        <v>0.06762641569628329</v>
       </c>
       <c r="AB4">
-        <v>0.03019539374193251</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="AC4">
-        <v>0.04872776476119754</v>
+        <v>0.04945663538593292</v>
       </c>
       <c r="AD4">
-        <v>118.8</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>29.9159562939359</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>148.7159562939359</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>83.11595629393591</v>
+        <v>-4.42</v>
       </c>
       <c r="AH4">
-        <v>0.3541564783735834</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.2273888807494142</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.2345814655464853</v>
+        <v>-0.07676276484890587</v>
       </c>
       <c r="AK4">
-        <v>0.1412537430450244</v>
+        <v>-0.06166294642857143</v>
       </c>
       <c r="AL4">
-        <v>9.84</v>
+        <v>0.202</v>
       </c>
       <c r="AM4">
-        <v>6.05</v>
+        <v>0.202</v>
       </c>
       <c r="AN4">
-        <v>2.212702551685602</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>3.455284552845529</v>
+        <v>21.13861386138613</v>
       </c>
       <c r="AP4">
-        <v>1.548071452671557</v>
+        <v>-1.032710280373832</v>
       </c>
       <c r="AQ4">
-        <v>5.619834710743802</v>
+        <v>21.13861386138613</v>
       </c>
     </row>
     <row r="5">
@@ -981,7 +972,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Securities House K.S.C.P. (KWSE:SECH)</t>
+          <t>A'ayan Leasing and Investment Company K.S.C.P. (KWSE:AAYAN)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -989,23 +980,26 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D5">
+        <v>-0.113</v>
+      </c>
       <c r="G5">
-        <v>-0.1017441860465116</v>
+        <v>0.8197767145135566</v>
       </c>
       <c r="H5">
-        <v>-0.1017441860465116</v>
+        <v>0.8197767145135566</v>
       </c>
       <c r="I5">
-        <v>0.04436046511627907</v>
+        <v>0.4401913875598086</v>
       </c>
       <c r="J5">
-        <v>0.04436046511627907</v>
+        <v>0.4401913875598086</v>
       </c>
       <c r="K5">
-        <v>0.148</v>
+        <v>-51.3</v>
       </c>
       <c r="L5">
-        <v>0.008604651162790697</v>
+        <v>-0.8181818181818181</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1014,7 +1008,7 @@
         <v>-0</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -1023,79 +1017,79 @@
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>10.1</v>
+        <v>130.7</v>
       </c>
       <c r="V5">
-        <v>0.1496296296296296</v>
+        <v>0.5396366639141206</v>
       </c>
       <c r="W5">
-        <v>0.001067821067821068</v>
+        <v>-0.1972318339100346</v>
       </c>
       <c r="X5">
-        <v>0.02810357539581793</v>
+        <v>0.03231766585286113</v>
       </c>
       <c r="Y5">
-        <v>-0.02703575432799686</v>
+        <v>-0.2295494997628957</v>
       </c>
       <c r="Z5">
-        <v>0.1270873355992315</v>
+        <v>0.1006436700428578</v>
       </c>
       <c r="AA5">
-        <v>0.005637653317570563</v>
+        <v>0.04430247676527713</v>
       </c>
       <c r="AB5">
-        <v>0.02807217870283443</v>
+        <v>0.02898939732484494</v>
       </c>
       <c r="AC5">
-        <v>-0.02243452538526387</v>
+        <v>0.01531307944043218</v>
       </c>
       <c r="AD5">
-        <v>3.68</v>
+        <v>454.5</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>3.68</v>
+        <v>454.5</v>
       </c>
       <c r="AG5">
-        <v>-6.42</v>
+        <v>323.8</v>
       </c>
       <c r="AH5">
-        <v>0.05169991570665917</v>
+        <v>0.6523611310463614</v>
       </c>
       <c r="AI5">
-        <v>0.02172629590270398</v>
+        <v>0.580089342693044</v>
       </c>
       <c r="AJ5">
-        <v>-0.1051080550098232</v>
+        <v>0.5720848056537102</v>
       </c>
       <c r="AK5">
-        <v>-0.04030637870416876</v>
+        <v>0.4960171568627452</v>
       </c>
       <c r="AL5">
-        <v>0.089</v>
+        <v>18.7</v>
       </c>
       <c r="AM5">
-        <v>0.089</v>
+        <v>18.7</v>
       </c>
       <c r="AN5">
-        <v>1.830845771144279</v>
+        <v>7.475328947368421</v>
       </c>
       <c r="AO5">
-        <v>8.57303370786517</v>
+        <v>1.475935828877005</v>
       </c>
       <c r="AP5">
-        <v>-3.194029850746269</v>
+        <v>5.325657894736842</v>
       </c>
       <c r="AQ5">
-        <v>8.57303370786517</v>
+        <v>1.475935828877005</v>
       </c>
     </row>
     <row r="6">
@@ -1106,7 +1100,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arzan Financial Group for Financing and Investment - KPSC (KWSE:ARZAN)</t>
+          <t>Kuwait Investment Company K.S.C.P. (KWSE:KINV)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1115,106 +1109,118 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0398</v>
-      </c>
-      <c r="E6">
-        <v>0.00129</v>
+        <v>0.0418</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.580817051509769</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.580817051509769</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1413854351687389</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1413854351687389</v>
       </c>
       <c r="K6">
-        <v>13</v>
+        <v>-16.5</v>
       </c>
       <c r="L6">
-        <v>0.4234527687296417</v>
+        <v>-0.2930728241563055</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>5.93</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.02697907188353048</v>
       </c>
       <c r="O6">
-        <v>-0</v>
+        <v>-0.3593939393939394</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>5.93</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.02697907188353048</v>
       </c>
       <c r="R6">
-        <v>-0</v>
+        <v>-0.3593939393939394</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6">
-        <v>20.7</v>
+        <v>87</v>
       </c>
       <c r="V6">
-        <v>0.332263242375602</v>
+        <v>0.3958143767060964</v>
       </c>
       <c r="W6">
-        <v>0.03761574074074074</v>
+        <v>-0.0422102839600921</v>
       </c>
       <c r="X6">
-        <v>0.04050317478700973</v>
+        <v>0.02098244494925583</v>
       </c>
       <c r="Y6">
-        <v>-0.00288743404626899</v>
+        <v>-0.06319272890934793</v>
       </c>
       <c r="Z6">
-        <v>0.07700025081514922</v>
+        <v>0.1267732492681828</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.01792389101553704</v>
       </c>
       <c r="AB6">
-        <v>0.03219384786711393</v>
+        <v>0.02115180848066013</v>
       </c>
       <c r="AC6">
-        <v>-0.03219384786711393</v>
+        <v>-0.00322791746512309</v>
       </c>
       <c r="AD6">
-        <v>110.2</v>
+        <v>82</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>110.2</v>
+        <v>82</v>
       </c>
       <c r="AG6">
-        <v>89.5</v>
+        <v>-5</v>
       </c>
       <c r="AH6">
-        <v>0.638840579710145</v>
+        <v>0.2717031146454605</v>
       </c>
       <c r="AI6">
-        <v>0.2358228118981383</v>
+        <v>0.1552442256720939</v>
       </c>
       <c r="AJ6">
-        <v>0.5895915678524374</v>
+        <v>-0.02327746741154562</v>
       </c>
       <c r="AK6">
-        <v>0.2004030452306314</v>
+        <v>-0.01133272892112421</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>5.529999999999999</v>
+      </c>
+      <c r="AN6">
+        <v>2.971014492753623</v>
+      </c>
+      <c r="AO6">
+        <v>0.8893854748603353</v>
+      </c>
+      <c r="AP6">
+        <v>-0.1811594202898551</v>
+      </c>
+      <c r="AQ6">
+        <v>1.439421338155515</v>
       </c>
     </row>
     <row r="7">
@@ -1225,7 +1231,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A'ayan Leasing and Investment Company K.S.C.P. (KWSE:AAYAN)</t>
+          <t>Al Bareeq Holding Company - K.S.C.P. (KWSE:BAREEQ)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1233,26 +1239,23 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D7">
-        <v>-0.197</v>
-      </c>
       <c r="G7">
-        <v>1.270925110132159</v>
+        <v>0.1829971181556196</v>
       </c>
       <c r="H7">
-        <v>1.270925110132159</v>
+        <v>0.1829971181556196</v>
       </c>
       <c r="I7">
-        <v>0.09339207048458151</v>
+        <v>0.09106628242074928</v>
       </c>
       <c r="J7">
-        <v>0.07506278562312159</v>
+        <v>0.08957271241293745</v>
       </c>
       <c r="K7">
-        <v>-3.45</v>
+        <v>5.59</v>
       </c>
       <c r="L7">
-        <v>-0.07599118942731278</v>
+        <v>0.8054755043227665</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1261,7 +1264,7 @@
         <v>-0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1270,79 +1273,73 @@
         <v>-0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>145.8</v>
+        <v>3.54</v>
       </c>
       <c r="V7">
-        <v>1.180566801619433</v>
+        <v>0.0375796178343949</v>
       </c>
       <c r="W7">
-        <v>-0.01308304891922639</v>
+        <v>0.0428680981595092</v>
       </c>
       <c r="X7">
-        <v>0.05770074089329855</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="Y7">
-        <v>-0.07078378981252494</v>
+        <v>0.02469831784915883</v>
       </c>
       <c r="Z7">
-        <v>0.06725128873614979</v>
+        <v>0.06174377224199289</v>
       </c>
       <c r="AA7">
-        <v>0.005048069069280263</v>
+        <v>0.005530557154321938</v>
       </c>
       <c r="AB7">
-        <v>0.03747419875027969</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="AC7">
-        <v>-0.03242612968099943</v>
+        <v>-0.01263922315602843</v>
       </c>
       <c r="AD7">
-        <v>512.1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>512.1</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>366.3</v>
+        <v>-3.54</v>
       </c>
       <c r="AH7">
-        <v>0.8056954059156702</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.5708393713075466</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.7478562678644345</v>
+        <v>-0.03904698874917274</v>
       </c>
       <c r="AK7">
-        <v>0.4875549048316252</v>
+        <v>-0.02418693632139929</v>
       </c>
       <c r="AL7">
-        <v>23.9</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>23.9</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>12.07783018867925</v>
-      </c>
-      <c r="AO7">
-        <v>0.1774058577405858</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>8.639150943396228</v>
-      </c>
-      <c r="AQ7">
-        <v>0.1774058577405858</v>
+        <v>-4.116279069767442</v>
       </c>
     </row>
     <row r="8">
@@ -1353,7 +1350,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Al Manar Financing &amp; Leasing K.S.C.P. (KWSE:ALMANAR)</t>
+          <t>Al Manar Financing and Leasing Company K.S.C. (Closed) (KWSE:ALMANAR)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1362,10 +1359,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.0374</v>
-      </c>
-      <c r="E8">
-        <v>-0.173</v>
+        <v>-0.297</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1380,28 +1374,28 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.6</v>
+        <v>-5.66</v>
       </c>
       <c r="L8">
-        <v>0.2476190476190476</v>
+        <v>-2.932642487046632</v>
       </c>
       <c r="M8">
-        <v>0.615</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="N8">
-        <v>0.01164772727272727</v>
+        <v>0.00168986083499006</v>
       </c>
       <c r="O8">
-        <v>0.2365384615384615</v>
+        <v>-0.01501766784452297</v>
       </c>
       <c r="P8">
-        <v>0.615</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="Q8">
-        <v>0.01164772727272727</v>
+        <v>0.00168986083499006</v>
       </c>
       <c r="R8">
-        <v>0.2365384615384615</v>
+        <v>-0.01501766784452297</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1410,55 +1404,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>2.76</v>
+        <v>7.36</v>
       </c>
       <c r="V8">
-        <v>0.05227272727272727</v>
+        <v>0.1463220675944334</v>
       </c>
       <c r="W8">
-        <v>0.02233676975945017</v>
+        <v>-0.05159525979945306</v>
       </c>
       <c r="X8">
-        <v>0.0312845860479512</v>
+        <v>0.02004336710552875</v>
       </c>
       <c r="Y8">
-        <v>-0.008947816288501029</v>
+        <v>-0.07163862690498181</v>
       </c>
       <c r="Z8">
-        <v>0.08006099885627144</v>
+        <v>0.01450691521346963</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.03278697423695127</v>
+        <v>0.02035435800036388</v>
       </c>
       <c r="AC8">
-        <v>-0.03278697423695127</v>
+        <v>-0.02035435800036388</v>
       </c>
       <c r="AD8">
-        <v>26.1</v>
+        <v>12.5</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>26.1</v>
+        <v>12.5</v>
       </c>
       <c r="AG8">
-        <v>23.34</v>
+        <v>5.14</v>
       </c>
       <c r="AH8">
-        <v>0.3307984790874525</v>
+        <v>0.1990445859872612</v>
       </c>
       <c r="AI8">
-        <v>0.1920529801324503</v>
+        <v>0.1084128360797919</v>
       </c>
       <c r="AJ8">
-        <v>0.3065405831363279</v>
+        <v>0.09271284271284271</v>
       </c>
       <c r="AK8">
-        <v>0.1753041910770618</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1475,7 +1469,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kuwait Finance and Investment Company K.S.C. (Public) (KWSE:KFIC)</t>
+          <t>Arzan Financial Group for Financing and Investment - KPSC (KWSE:ARZAN)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1484,10 +1478,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>-0.053</v>
-      </c>
-      <c r="E9">
-        <v>-0.355</v>
+        <v>-0.243</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1502,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.772</v>
+        <v>-38.3</v>
       </c>
       <c r="L9">
-        <v>0.05718518518518519</v>
+        <v>-4.916559691912708</v>
       </c>
       <c r="M9">
-        <v>-0</v>
+        <v>1.8</v>
       </c>
       <c r="N9">
-        <v>-0</v>
+        <v>0.01251738525730181</v>
       </c>
       <c r="O9">
-        <v>-0</v>
+        <v>-0.04699738903394256</v>
       </c>
       <c r="P9">
         <v>-0</v>
@@ -1523,61 +1514,64 @@
         <v>-0</v>
       </c>
       <c r="R9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1.8</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>12.6</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="V9">
-        <v>0.25</v>
+        <v>0.4596662030598052</v>
       </c>
       <c r="W9">
-        <v>0.005965996908809891</v>
+        <v>-0.1180641183723798</v>
       </c>
       <c r="X9">
-        <v>0.03317695033073414</v>
+        <v>0.02393698795303298</v>
       </c>
       <c r="Y9">
-        <v>-0.02721095342192425</v>
+        <v>-0.1420011063254128</v>
       </c>
       <c r="Z9">
-        <v>0.09284731774415407</v>
+        <v>0.01882097124909398</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.03431751276752832</v>
+        <v>0.02535805853970051</v>
       </c>
       <c r="AC9">
-        <v>-0.03431751276752832</v>
+        <v>-0.02535805853970051</v>
       </c>
       <c r="AD9">
-        <v>38.1</v>
+        <v>110</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>38.1</v>
+        <v>110</v>
       </c>
       <c r="AG9">
-        <v>25.5</v>
+        <v>43.90000000000001</v>
       </c>
       <c r="AH9">
-        <v>0.4305084745762712</v>
+        <v>0.4334121355397951</v>
       </c>
       <c r="AI9">
-        <v>0.2221574344023324</v>
+        <v>0.2117420596727623</v>
       </c>
       <c r="AJ9">
-        <v>0.3359683794466403</v>
+        <v>0.2338838572189665</v>
       </c>
       <c r="AK9">
-        <v>0.1604782882315922</v>
+        <v>0.0968239964711072</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1594,7 +1588,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KAMCO Investment Company K.S.C.P. (KWSE:KAMCO)</t>
+          <t>Kuwait Finance and Investment Company K.S.C. (Public) (KWSE:KFIC)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1603,10 +1597,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.171</v>
-      </c>
-      <c r="E10">
-        <v>-0.0553</v>
+        <v>-0.522</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1621,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>-7.84</v>
       </c>
       <c r="L10">
-        <v>0.130718954248366</v>
+        <v>-22.08450704225352</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1633,7 +1624,7 @@
         <v>-0</v>
       </c>
       <c r="O10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>-0</v>
@@ -1642,61 +1633,61 @@
         <v>-0</v>
       </c>
       <c r="R10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>157.3</v>
+        <v>25.5</v>
       </c>
       <c r="V10">
-        <v>1.548228346456693</v>
+        <v>0.5835240274599542</v>
       </c>
       <c r="W10">
-        <v>0.06914433880726015</v>
+        <v>-0.06082234290147401</v>
       </c>
       <c r="X10">
-        <v>0.042666184361469</v>
+        <v>0.0236733064685918</v>
       </c>
       <c r="Y10">
-        <v>0.02647815444579114</v>
+        <v>-0.0844956493700658</v>
       </c>
       <c r="Z10">
-        <v>0.3817841547099189</v>
+        <v>0.002583697234352255</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.03587861564835135</v>
+        <v>0.0266672982235333</v>
       </c>
       <c r="AC10">
-        <v>-0.03587861564835135</v>
+        <v>-0.0266672982235333</v>
       </c>
       <c r="AD10">
-        <v>210.1</v>
+        <v>31.9</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>210.1</v>
+        <v>31.9</v>
       </c>
       <c r="AG10">
-        <v>52.79999999999998</v>
+        <v>6.399999999999999</v>
       </c>
       <c r="AH10">
-        <v>0.6740455566249599</v>
+        <v>0.421957671957672</v>
       </c>
       <c r="AI10">
-        <v>0.5228969636635142</v>
+        <v>0.2021546261089987</v>
       </c>
       <c r="AJ10">
-        <v>0.3419689119170984</v>
+        <v>0.1277445109780439</v>
       </c>
       <c r="AK10">
-        <v>0.2159509202453987</v>
+        <v>0.04837490551776265</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1721,104 +1712,98 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D11">
-        <v>0.006059999999999999</v>
-      </c>
-      <c r="E11">
-        <v>0.0253</v>
-      </c>
       <c r="G11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K11">
-        <v>44.3</v>
+        <v>-24.2</v>
       </c>
       <c r="L11">
-        <v>0.7420435510887772</v>
+        <v>25.44689800210305</v>
       </c>
       <c r="M11">
-        <v>28.204</v>
+        <v>27.7</v>
       </c>
       <c r="N11">
-        <v>0.07759009628610729</v>
+        <v>0.0873266078184111</v>
       </c>
       <c r="O11">
-        <v>0.6366591422121897</v>
+        <v>-1.144628099173554</v>
       </c>
       <c r="P11">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="Q11">
-        <v>0.07702888583218707</v>
+        <v>0.0873266078184111</v>
       </c>
       <c r="R11">
-        <v>0.6320541760722348</v>
+        <v>-1.144628099173554</v>
       </c>
       <c r="S11">
-        <v>0.2040000000000006</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.00723301659339103</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>87.40000000000001</v>
+        <v>60.6</v>
       </c>
       <c r="V11">
-        <v>0.2404401650618982</v>
+        <v>0.191046658259773</v>
       </c>
       <c r="W11">
-        <v>0.08031182015953589</v>
+        <v>-0.04579863739591219</v>
       </c>
       <c r="X11">
-        <v>0.03740347542695857</v>
+        <v>0.02718272983630286</v>
       </c>
       <c r="Y11">
-        <v>0.04290834473257732</v>
+        <v>-0.07298136723221504</v>
       </c>
       <c r="Z11">
-        <v>0.06129363449691991</v>
+        <v>-0.001024563671622495</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.03650021272483904</v>
+        <v>0.02913538959367445</v>
       </c>
       <c r="AC11">
-        <v>-0.03650021272483904</v>
+        <v>-0.02913538959367445</v>
       </c>
       <c r="AD11">
-        <v>487.2</v>
+        <v>379.2</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>487.2</v>
+        <v>379.2</v>
       </c>
       <c r="AG11">
-        <v>399.8</v>
+        <v>318.6</v>
       </c>
       <c r="AH11">
-        <v>0.5727048313153873</v>
+        <v>0.5445146467547387</v>
       </c>
       <c r="AI11">
-        <v>0.4796691936595451</v>
+        <v>0.445331767469172</v>
       </c>
       <c r="AJ11">
-        <v>0.5237783309314817</v>
+        <v>0.5011009751494181</v>
       </c>
       <c r="AK11">
-        <v>0.4306797371539373</v>
+        <v>0.4028322164622581</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1835,7 +1820,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Credit Rating &amp; Collection Company K.S.C.P. (KWSE:TAHSSILAT)</t>
+          <t>KAMCO Investment Company K.S.C.P. (KWSE:KAMCO)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1843,95 +1828,101 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D12">
+        <v>0.349</v>
+      </c>
       <c r="G12">
-        <v>-0.7985074626865671</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-0.7985074626865671</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>-0.7111940298507462</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>-0.7111940298507462</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>-0.454</v>
+        <v>2.44</v>
       </c>
       <c r="L12">
-        <v>-0.3388059701492537</v>
+        <v>0.04831683168316832</v>
       </c>
       <c r="M12">
-        <v>-0</v>
+        <v>5.3</v>
       </c>
       <c r="N12">
-        <v>-0</v>
+        <v>0.06370192307692307</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.172131147540984</v>
       </c>
       <c r="P12">
-        <v>-0</v>
+        <v>5.3</v>
       </c>
       <c r="Q12">
-        <v>-0</v>
+        <v>0.06370192307692307</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>2.172131147540984</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
       <c r="U12">
-        <v>0.154</v>
+        <v>145</v>
       </c>
       <c r="V12">
-        <v>0.01412844036697248</v>
+        <v>1.742788461538461</v>
       </c>
       <c r="W12">
-        <v>-0.02480874316939891</v>
+        <v>0.02232387923147301</v>
       </c>
       <c r="X12">
-        <v>0.02770925042784321</v>
+        <v>0.0372627286839345</v>
       </c>
       <c r="Y12">
-        <v>-0.05251799359724212</v>
+        <v>-0.01493884945246149</v>
       </c>
       <c r="Z12">
-        <v>0.07478513226922648</v>
+        <v>0.3115360888340531</v>
       </c>
       <c r="AA12">
-        <v>-0.05318673959147226</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.02770925042784321</v>
+        <v>0.0326071524399594</v>
       </c>
       <c r="AC12">
-        <v>-0.08089599001931548</v>
+        <v>-0.0326071524399594</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>210.7</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>210.7</v>
       </c>
       <c r="AG12">
-        <v>-0.154</v>
+        <v>65.69999999999999</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>0.7169105137801973</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>0.5384615384615385</v>
       </c>
       <c r="AJ12">
-        <v>-0.01433091382840126</v>
+        <v>0.4412357286769644</v>
       </c>
       <c r="AK12">
-        <v>-0.008727190298084551</v>
+        <v>0.2667478684531059</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1939,11 +1930,130 @@
       <c r="AM12">
         <v>0</v>
       </c>
-      <c r="AN12">
-        <v>-0</v>
-      </c>
-      <c r="AP12">
-        <v>0.1626187961985217</v>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>The Securities House K.S.C.P. (KWSE:SECH)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G13">
+        <v>0.2606557377049181</v>
+      </c>
+      <c r="H13">
+        <v>0.2606557377049181</v>
+      </c>
+      <c r="I13">
+        <v>-0.2827868852459017</v>
+      </c>
+      <c r="J13">
+        <v>-0.2827868852459017</v>
+      </c>
+      <c r="K13">
+        <v>-3.79</v>
+      </c>
+      <c r="L13">
+        <v>-0.3106557377049181</v>
+      </c>
+      <c r="M13">
+        <v>-0</v>
+      </c>
+      <c r="N13">
+        <v>-0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>-0</v>
+      </c>
+      <c r="Q13">
+        <v>-0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>8.74</v>
+      </c>
+      <c r="V13">
+        <v>0.1124839124839125</v>
+      </c>
+      <c r="W13">
+        <v>-0.02822040208488458</v>
+      </c>
+      <c r="X13">
+        <v>0.01841332826777807</v>
+      </c>
+      <c r="Y13">
+        <v>-0.04663373035266265</v>
+      </c>
+      <c r="Z13">
+        <v>0.1037679680190525</v>
+      </c>
+      <c r="AA13">
+        <v>-0.02934422046440418</v>
+      </c>
+      <c r="AB13">
+        <v>0.01851322936869366</v>
+      </c>
+      <c r="AC13">
+        <v>-0.04785744983309785</v>
+      </c>
+      <c r="AD13">
+        <v>2.51</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>2.51</v>
+      </c>
+      <c r="AG13">
+        <v>-6.23</v>
+      </c>
+      <c r="AH13">
+        <v>0.03129285625233761</v>
+      </c>
+      <c r="AI13">
+        <v>0.01550243962695324</v>
+      </c>
+      <c r="AJ13">
+        <v>-0.0871694417238002</v>
+      </c>
+      <c r="AK13">
+        <v>-0.0406737611803878</v>
+      </c>
+      <c r="AL13">
+        <v>0.02</v>
+      </c>
+      <c r="AM13">
+        <v>0.02</v>
+      </c>
+      <c r="AN13">
+        <v>-1.267676767676768</v>
+      </c>
+      <c r="AO13">
+        <v>-172.5</v>
+      </c>
+      <c r="AP13">
+        <v>3.146464646464647</v>
+      </c>
+      <c r="AQ13">
+        <v>-172.5</v>
       </c>
     </row>
   </sheetData>
